--- a/biology/Botanique/Agropyron/Agropyron.xlsx
+++ b/biology/Botanique/Agropyron/Agropyron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agropyron est un genre de plantes monocotylédones de la famille des Poaceae, originaires d'Europe et d'Asie. Certaines espèces du genre sont communément appelées "Chiendent".
 Ce sont des plantes herbacées, vivaces par leurs rhizomes, à inflorescence en épi simple.
@@ -513,9 +525,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agropyrum vient du grec agros champ et pyrosblé, à cause de sa ressemblance avec les anciennes variétés de blé[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agropyrum vient du grec agros champ et pyrosblé, à cause de sa ressemblance avec les anciennes variétés de blé.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (20 juin 2013)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (20 juin 2013) :
 Agropyron badamense Drobow (1925)
 Agropyron brownei (Kunth) Tzvelev (1973)
 Agropyron bulbosum Boiss. (1844)
@@ -563,7 +579,7 @@
 Agropyron tanaiticum Nevski, Trudy Sredne-Aziatsk. Gosud. Univ., Ser. 8b (1934)
 Agropyron thomsonii Hook.f. (1896)
 Agropyron velutinum Nees (1843)
-Selon Catalogue of Life                                   (20 juin 2013)[4] :
+Selon Catalogue of Life                                   (20 juin 2013) :
 Agropyron acutiforme
 Agropyron acutum
 Agropyron apiculatum
